--- a/Excel/Excel_WorkBook.xlsx
+++ b/Excel/Excel_WorkBook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed864f1837b3aac/Desktop/Vincent's/Education/Learning Tools/Udemy/Excel/Excel^MHomework^MWorkbooks/Excel Homework Workbooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed864f1837b3aac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="674" documentId="13_ncr:1_{A527FBB6-BD1C-476A-820C-C1914F18C3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C6B3D4-A48D-44B1-886C-24577819DD7D}"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1433,8 +1433,8 @@
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="[$-409]dddd"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-409]dddd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1766,7 +1766,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1776,10 +1776,10 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1802,35 +1802,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6667,9 +6643,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6706,7 +6680,7 @@
       </c>
       <c r="C4" s="37">
         <f ca="1">NOW()</f>
-        <v>45388.6534994213</v>
+        <v>45388.660454861114</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6748,11 +6722,11 @@
       </c>
       <c r="F7" s="38">
         <f ca="1">MINUTE(C4)</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G7" s="38">
         <f ca="1">SECOND(C4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7066,9 +7040,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7722,6 +7694,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A25">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$G2:$G25&lt;40%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F2="Kids"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -7732,16 +7714,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A25">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$G2:$G25&lt;40%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G25">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F2="Kids"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7781,9 +7753,7 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O11:O12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8598,9 +8568,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9053,9 +9021,7 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9280,7 +9246,7 @@
         <v>71</v>
       </c>
       <c r="H9" s="34">
-        <f t="shared" ref="H9:I10" si="0">SUMIFS($D$2:$D$70,$C$2:$C$70,$G9,$A$2:$A$70,$H$2)</f>
+        <f t="shared" ref="H9:H10" si="0">SUMIFS($D$2:$D$70,$C$2:$C$70,$G9,$A$2:$A$70,$H$2)</f>
         <v>372</v>
       </c>
       <c r="I9" s="52">
@@ -10367,9 +10333,7 @@
   </sheetPr>
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16338,9 +16302,7 @@
   </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16781,9 +16743,7 @@
   </sheetPr>
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19658,9 +19618,7 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19967,9 +19925,7 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20233,9 +20189,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Excel/Excel_WorkBook.xlsx
+++ b/Excel/Excel_WorkBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed864f1837b3aac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="674" documentId="13_ncr:1_{A527FBB6-BD1C-476A-820C-C1914F18C3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C6B3D4-A48D-44B1-886C-24577819DD7D}"/>
+  <xr:revisionPtr revIDLastSave="688" documentId="13_ncr:1_{A527FBB6-BD1C-476A-820C-C1914F18C3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A8FF49B-760B-48DE-9834-6058F56E4289}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="442">
   <si>
     <t>State</t>
   </si>
@@ -1420,6 +1420,12 @@
   </si>
   <si>
     <t>Next_Year</t>
+  </si>
+  <si>
+    <t>New_Created_Key</t>
+  </si>
+  <si>
+    <t>Per Capita Income_AlternateFunction</t>
   </si>
 </sst>
 </file>
@@ -6680,7 +6686,7 @@
       </c>
       <c r="C4" s="37">
         <f ca="1">NOW()</f>
-        <v>45388.660454861114</v>
+        <v>45388.663211921295</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6722,11 +6728,11 @@
       </c>
       <c r="F7" s="38">
         <f ca="1">MINUTE(C4)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="38">
         <f ca="1">SECOND(C4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10337,12 +10343,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
@@ -10352,7 +10360,9 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
@@ -10365,7 +10375,9 @@
       <c r="G1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="7" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -16749,7 +16761,7 @@
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16760,7 +16772,9 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="D1" s="17" t="s">
         <v>124</v>
       </c>
@@ -19956,7 +19970,7 @@
       </c>
       <c r="D2" s="34">
         <f>COUNTA(A:A)-1</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19980,7 +19994,7 @@
       </c>
       <c r="D4" s="35">
         <f ca="1">OFFSET(A1,D2,0,1,1)</f>
-        <v>42389</v>
+        <v>42399</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20004,7 +20018,7 @@
       </c>
       <c r="D6" s="34">
         <f ca="1">OFFSET(A1,D2,1,1,1)</f>
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20028,7 +20042,7 @@
       </c>
       <c r="D8" s="34">
         <f ca="1">SUM(OFFSET(A1,0,1,COUNTA(B:B),1))</f>
-        <v>997</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20053,7 +20067,7 @@
       </c>
       <c r="D10" s="34">
         <f ca="1">SUM(OFFSET(A1,0,1,COUNTA(B:B)-1,1))</f>
-        <v>971</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -20146,34 +20160,84 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="31">
+        <v>42390</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="31">
+        <v>42391</v>
+      </c>
+      <c r="B23" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="31">
+        <v>42392</v>
+      </c>
+      <c r="B24" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="31">
+        <v>42393</v>
+      </c>
+      <c r="B25" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="31">
+        <v>42394</v>
+      </c>
+      <c r="B26" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+      <c r="A27" s="31">
+        <v>42395</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="31">
+        <v>42396</v>
+      </c>
+      <c r="B28" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="31">
+        <v>42397</v>
+      </c>
+      <c r="B29" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="31">
+        <v>42398</v>
+      </c>
+      <c r="B30" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="31">
+        <v>42399</v>
+      </c>
+      <c r="B31" s="2">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
